--- a/Code/Results/Cases/Case_0_158/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_158/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009090359713217</v>
+        <v>1.047039682708714</v>
       </c>
       <c r="D2">
-        <v>1.017375164277561</v>
+        <v>1.049684267066092</v>
       </c>
       <c r="E2">
-        <v>1.02251777267772</v>
+        <v>1.053884458289688</v>
       </c>
       <c r="F2">
-        <v>1.029788467501404</v>
+        <v>1.063063112619902</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052494913855335</v>
+        <v>1.04149200229736</v>
       </c>
       <c r="J2">
-        <v>1.031002538005287</v>
+        <v>1.052090871787959</v>
       </c>
       <c r="K2">
-        <v>1.028597628392569</v>
+        <v>1.052440640327322</v>
       </c>
       <c r="L2">
-        <v>1.033672065502423</v>
+        <v>1.056629195115558</v>
       </c>
       <c r="M2">
-        <v>1.040847832906101</v>
+        <v>1.065782766879213</v>
       </c>
       <c r="N2">
-        <v>1.013618125276873</v>
+        <v>1.021131664836827</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015469093560684</v>
+        <v>1.048330387718712</v>
       </c>
       <c r="D3">
-        <v>1.023108925530672</v>
+        <v>1.050890545911572</v>
       </c>
       <c r="E3">
-        <v>1.027966172385959</v>
+        <v>1.055035962485241</v>
       </c>
       <c r="F3">
-        <v>1.035674502627422</v>
+        <v>1.064311590246407</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054529276640877</v>
+        <v>1.041792396837425</v>
       </c>
       <c r="J3">
-        <v>1.035546758039827</v>
+        <v>1.053028209899666</v>
       </c>
       <c r="K3">
-        <v>1.033454420916706</v>
+        <v>1.053458197933901</v>
       </c>
       <c r="L3">
-        <v>1.038253301156265</v>
+        <v>1.057592966904132</v>
       </c>
       <c r="M3">
-        <v>1.045870396090001</v>
+        <v>1.066845093708552</v>
       </c>
       <c r="N3">
-        <v>1.015181324143575</v>
+        <v>1.021449335311988</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019485985547953</v>
+        <v>1.049164757177336</v>
       </c>
       <c r="D4">
-        <v>1.026724489877861</v>
+        <v>1.051670573656668</v>
       </c>
       <c r="E4">
-        <v>1.031403325881169</v>
+        <v>1.055780660943154</v>
       </c>
       <c r="F4">
-        <v>1.039387692102551</v>
+        <v>1.065119045730061</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055794134707372</v>
+        <v>1.041984569936853</v>
       </c>
       <c r="J4">
-        <v>1.038404039027978</v>
+        <v>1.053633443332907</v>
       </c>
       <c r="K4">
-        <v>1.03651072807298</v>
+        <v>1.054115544499963</v>
       </c>
       <c r="L4">
-        <v>1.041136956818763</v>
+        <v>1.05821561051617</v>
       </c>
       <c r="M4">
-        <v>1.049032893316683</v>
+        <v>1.067531535133883</v>
       </c>
       <c r="N4">
-        <v>1.016163592291313</v>
+        <v>1.02165429115508</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021149494006087</v>
+        <v>1.049515337253012</v>
       </c>
       <c r="D5">
-        <v>1.028222898017787</v>
+        <v>1.051998376500986</v>
       </c>
       <c r="E5">
-        <v>1.032828147830193</v>
+        <v>1.056093638270767</v>
       </c>
       <c r="F5">
-        <v>1.040926935776355</v>
+        <v>1.065458408457293</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056313987562001</v>
+        <v>1.042064833022041</v>
       </c>
       <c r="J5">
-        <v>1.039586219976527</v>
+        <v>1.053887577522354</v>
       </c>
       <c r="K5">
-        <v>1.037775854910939</v>
+        <v>1.054391636429154</v>
       </c>
       <c r="L5">
-        <v>1.04233079030963</v>
+        <v>1.058477137090774</v>
       </c>
       <c r="M5">
-        <v>1.050342417937426</v>
+        <v>1.067819888722743</v>
       </c>
       <c r="N5">
-        <v>1.016569836968565</v>
+        <v>1.02174031204181</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021427362557625</v>
+        <v>1.049574190214718</v>
       </c>
       <c r="D6">
-        <v>1.028473251693978</v>
+        <v>1.052053409029891</v>
       </c>
       <c r="E6">
-        <v>1.033066227110084</v>
+        <v>1.056146183100581</v>
       </c>
       <c r="F6">
-        <v>1.0411841341439</v>
+        <v>1.065515383656783</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056400587864474</v>
+        <v>1.042078278695095</v>
       </c>
       <c r="J6">
-        <v>1.039783622512704</v>
+        <v>1.053930229892851</v>
       </c>
       <c r="K6">
-        <v>1.037987143274475</v>
+        <v>1.05443797849986</v>
       </c>
       <c r="L6">
-        <v>1.042530182046477</v>
+        <v>1.058521034962615</v>
       </c>
       <c r="M6">
-        <v>1.050561146905748</v>
+        <v>1.067868291349106</v>
       </c>
       <c r="N6">
-        <v>1.016637662512646</v>
+        <v>1.021754746987111</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019508310796298</v>
+        <v>1.049169442383289</v>
       </c>
       <c r="D7">
-        <v>1.026744595104593</v>
+        <v>1.0516749542459</v>
       </c>
       <c r="E7">
-        <v>1.03142244237043</v>
+        <v>1.055784843327686</v>
       </c>
       <c r="F7">
-        <v>1.039408343771247</v>
+        <v>1.065123580668059</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055801127182789</v>
+        <v>1.041985644483959</v>
       </c>
       <c r="J7">
-        <v>1.03841990900193</v>
+        <v>1.053636840285873</v>
       </c>
       <c r="K7">
-        <v>1.036527709160076</v>
+        <v>1.054119234659146</v>
       </c>
       <c r="L7">
-        <v>1.041152980295341</v>
+        <v>1.058219105959216</v>
       </c>
       <c r="M7">
-        <v>1.049050468593437</v>
+        <v>1.067535389015406</v>
       </c>
       <c r="N7">
-        <v>1.016169046506145</v>
+        <v>1.021655441129687</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011269778012279</v>
+        <v>1.04747605082097</v>
       </c>
       <c r="D8">
-        <v>1.019333160140966</v>
+        <v>1.050092042892357</v>
       </c>
       <c r="E8">
-        <v>1.02437799052765</v>
+        <v>1.054273699084897</v>
       </c>
       <c r="F8">
-        <v>1.031798119355517</v>
+        <v>1.063485124386476</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053193376032866</v>
+        <v>1.041593978477869</v>
       </c>
       <c r="J8">
-        <v>1.032556043294633</v>
+        <v>1.052407917381639</v>
       </c>
       <c r="K8">
-        <v>1.030257467811339</v>
+        <v>1.052784753944409</v>
       </c>
       <c r="L8">
-        <v>1.03523756889124</v>
+        <v>1.05695511073002</v>
       </c>
       <c r="M8">
-        <v>1.042563925653075</v>
+        <v>1.066141984322726</v>
       </c>
       <c r="N8">
-        <v>1.0141526520779</v>
+        <v>1.021239147320228</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9958428336303037</v>
+        <v>1.044485775918684</v>
       </c>
       <c r="D9">
-        <v>1.00549698142928</v>
+        <v>1.047298688905325</v>
       </c>
       <c r="E9">
-        <v>1.011239973385557</v>
+        <v>1.051607690071559</v>
       </c>
       <c r="F9">
-        <v>1.017604199860882</v>
+        <v>1.060594830664033</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048182189940284</v>
+        <v>1.040886912487681</v>
       </c>
       <c r="J9">
-        <v>1.021543251086429</v>
+        <v>1.05023244348836</v>
       </c>
       <c r="K9">
-        <v>1.018501499096536</v>
+        <v>1.050424844137705</v>
       </c>
       <c r="L9">
-        <v>1.02415328457322</v>
+        <v>1.054720180268962</v>
       </c>
       <c r="M9">
-        <v>1.030417975057342</v>
+        <v>1.063679210472267</v>
       </c>
       <c r="N9">
-        <v>1.010361181813159</v>
+        <v>1.0205009731277</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9848497112521076</v>
+        <v>1.042487805689019</v>
       </c>
       <c r="D10">
-        <v>0.9956706835245634</v>
+        <v>1.045433557923191</v>
       </c>
       <c r="E10">
-        <v>1.001919524358181</v>
+        <v>1.049828066141052</v>
       </c>
       <c r="F10">
-        <v>1.007533663507054</v>
+        <v>1.058665704560969</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044528542804197</v>
+        <v>1.040404122951353</v>
       </c>
       <c r="J10">
-        <v>1.013677591881784</v>
+        <v>1.048775295073274</v>
       </c>
       <c r="K10">
-        <v>1.010118547565018</v>
+        <v>1.048845786670775</v>
       </c>
       <c r="L10">
-        <v>1.01625420747373</v>
+        <v>1.053224975442699</v>
       </c>
       <c r="M10">
-        <v>1.021768214665552</v>
+        <v>1.062032228980429</v>
       </c>
       <c r="N10">
-        <v>1.007650952565329</v>
+        <v>1.020005713861591</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9798967596219793</v>
+        <v>1.041621557283808</v>
       </c>
       <c r="D11">
-        <v>0.9912525222339649</v>
+        <v>1.044625211562318</v>
       </c>
       <c r="E11">
-        <v>0.9977314769781405</v>
+        <v>1.049056893926014</v>
       </c>
       <c r="F11">
-        <v>1.003008209860968</v>
+        <v>1.057829797556887</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042863815600917</v>
+        <v>1.04019235131929</v>
       </c>
       <c r="J11">
-        <v>1.01013044898479</v>
+        <v>1.048142681269283</v>
       </c>
       <c r="K11">
-        <v>1.006341310340247</v>
+        <v>1.048160631798496</v>
       </c>
       <c r="L11">
-        <v>1.012696301498973</v>
+        <v>1.052576258859208</v>
       </c>
       <c r="M11">
-        <v>1.017873617855483</v>
+        <v>1.061317817194657</v>
       </c>
       <c r="N11">
-        <v>1.006428395769086</v>
+        <v>1.019790505788593</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9780256498606401</v>
+        <v>1.041299622357306</v>
       </c>
       <c r="D12">
-        <v>0.9895849191005969</v>
+        <v>1.044324842376392</v>
       </c>
       <c r="E12">
-        <v>0.9961511576013836</v>
+        <v>1.048770355600059</v>
       </c>
       <c r="F12">
-        <v>1.001300507611612</v>
+        <v>1.05751921362156</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042232227743065</v>
+        <v>1.040113280081017</v>
       </c>
       <c r="J12">
-        <v>1.008790024536992</v>
+        <v>1.047907448247897</v>
       </c>
       <c r="K12">
-        <v>1.004914413324379</v>
+        <v>1.047905919547128</v>
       </c>
       <c r="L12">
-        <v>1.01135246871412</v>
+        <v>1.052335101114047</v>
       </c>
       <c r="M12">
-        <v>1.01640283428998</v>
+        <v>1.061052260877911</v>
       </c>
       <c r="N12">
-        <v>1.005966373089148</v>
+        <v>1.019710453226932</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9784284697726405</v>
+        <v>1.041368686331201</v>
       </c>
       <c r="D13">
-        <v>0.9899438587976478</v>
+        <v>1.044389277769718</v>
       </c>
       <c r="E13">
-        <v>0.9964912902534203</v>
+        <v>1.048831823193091</v>
       </c>
       <c r="F13">
-        <v>1.001668060086947</v>
+        <v>1.057585839094869</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042368318380493</v>
+        <v>1.040130259693105</v>
       </c>
       <c r="J13">
-        <v>1.009078612703011</v>
+        <v>1.047957917983019</v>
       </c>
       <c r="K13">
-        <v>1.005221597163986</v>
+        <v>1.04796056597753</v>
       </c>
       <c r="L13">
-        <v>1.011641760730691</v>
+        <v>1.052386839161348</v>
       </c>
       <c r="M13">
-        <v>1.016719445565256</v>
+        <v>1.061109232344455</v>
       </c>
       <c r="N13">
-        <v>1.006065845942829</v>
+        <v>1.019727629977969</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9797427476608848</v>
+        <v>1.041594949570021</v>
       </c>
       <c r="D14">
-        <v>0.9911152303899635</v>
+        <v>1.044600385283479</v>
       </c>
       <c r="E14">
-        <v>0.9976013622312018</v>
+        <v>1.049033210444794</v>
       </c>
       <c r="F14">
-        <v>1.002867608519322</v>
+        <v>1.057804126464585</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042811883339668</v>
+        <v>1.040185823632717</v>
       </c>
       <c r="J14">
-        <v>1.010020125461485</v>
+        <v>1.048123241993436</v>
       </c>
       <c r="K14">
-        <v>1.006223860019723</v>
+        <v>1.048139581612315</v>
       </c>
       <c r="L14">
-        <v>1.012585684010864</v>
+        <v>1.052556328689395</v>
       </c>
       <c r="M14">
-        <v>1.01775254597038</v>
+        <v>1.061295870160126</v>
       </c>
       <c r="N14">
-        <v>1.006390369583679</v>
+        <v>1.019783890963908</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9805482857809988</v>
+        <v>1.041734334937733</v>
       </c>
       <c r="D15">
-        <v>0.9918333769599895</v>
+        <v>1.044730440469355</v>
       </c>
       <c r="E15">
-        <v>0.998281984444402</v>
+        <v>1.04915727967808</v>
       </c>
       <c r="F15">
-        <v>1.003603082712117</v>
+        <v>1.057938608378677</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04308339888403</v>
+        <v>1.04022000407117</v>
       </c>
       <c r="J15">
-        <v>1.010597141749031</v>
+        <v>1.048225070082905</v>
       </c>
       <c r="K15">
-        <v>1.006838170433105</v>
+        <v>1.048249850443532</v>
       </c>
       <c r="L15">
-        <v>1.013164264670127</v>
+        <v>1.05266073078998</v>
       </c>
       <c r="M15">
-        <v>1.018385816871385</v>
+        <v>1.061410838350726</v>
       </c>
       <c r="N15">
-        <v>1.006589253681409</v>
+        <v>1.019818539988464</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.985174161141171</v>
+        <v>1.042545271901857</v>
       </c>
       <c r="D16">
-        <v>0.995960298584977</v>
+        <v>1.045487189495692</v>
       </c>
       <c r="E16">
-        <v>1.002194112902534</v>
+        <v>1.049879233756517</v>
       </c>
       <c r="F16">
-        <v>1.007830365566936</v>
+        <v>1.058721168397167</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04463721598225</v>
+        <v>1.040418120125023</v>
       </c>
       <c r="J16">
-        <v>1.013909892326756</v>
+        <v>1.048817244373326</v>
       </c>
       <c r="K16">
-        <v>1.010365982694813</v>
+        <v>1.048891228126136</v>
       </c>
       <c r="L16">
-        <v>1.016487303019014</v>
+        <v>1.053268001358678</v>
       </c>
       <c r="M16">
-        <v>1.022023398411839</v>
+        <v>1.062079615380737</v>
       </c>
       <c r="N16">
-        <v>1.007731011656094</v>
+        <v>1.020019980476343</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9880226118812915</v>
+        <v>1.043053649915662</v>
       </c>
       <c r="D17">
-        <v>0.9985039621936938</v>
+        <v>1.045961679754886</v>
       </c>
       <c r="E17">
-        <v>1.004606105443475</v>
+        <v>1.050331938200728</v>
       </c>
       <c r="F17">
-        <v>1.010436561436643</v>
+        <v>1.059211889290323</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045589202989595</v>
+        <v>1.040541663950662</v>
       </c>
       <c r="J17">
-        <v>1.015948973949179</v>
+        <v>1.049188253511575</v>
       </c>
       <c r="K17">
-        <v>1.012538273317195</v>
+        <v>1.049293167103103</v>
       </c>
       <c r="L17">
-        <v>1.018533852086291</v>
+        <v>1.053648580695911</v>
       </c>
       <c r="M17">
-        <v>1.024264041428343</v>
+        <v>1.062498782661184</v>
       </c>
       <c r="N17">
-        <v>1.008433716593327</v>
+        <v>1.020146135331019</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9896656317463138</v>
+        <v>1.04335007100842</v>
       </c>
       <c r="D18">
-        <v>0.9999720246877609</v>
+        <v>1.046238371462692</v>
       </c>
       <c r="E18">
-        <v>1.005998424664331</v>
+        <v>1.050595936967401</v>
       </c>
       <c r="F18">
-        <v>1.011940950850254</v>
+        <v>1.059498062492004</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046136563444105</v>
+        <v>1.040613462552569</v>
       </c>
       <c r="J18">
-        <v>1.017124825557203</v>
+        <v>1.049404496997547</v>
       </c>
       <c r="K18">
-        <v>1.013791241039491</v>
+        <v>1.049527475220676</v>
       </c>
       <c r="L18">
-        <v>1.019714414590297</v>
+        <v>1.053870442579499</v>
       </c>
       <c r="M18">
-        <v>1.025556702763957</v>
+        <v>1.062743154675526</v>
       </c>
       <c r="N18">
-        <v>1.008838903747408</v>
+        <v>1.020219646292273</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9902228007665563</v>
+        <v>1.04345112488735</v>
       </c>
       <c r="D19">
-        <v>1.000470004041179</v>
+        <v>1.046332704338047</v>
       </c>
       <c r="E19">
-        <v>1.006470752883865</v>
+        <v>1.050685944302737</v>
       </c>
       <c r="F19">
-        <v>1.012451292249186</v>
+        <v>1.059595630760496</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046321879566944</v>
+        <v>1.040637899541682</v>
       </c>
       <c r="J19">
-        <v>1.017523515810409</v>
+        <v>1.049478203407343</v>
       </c>
       <c r="K19">
-        <v>1.014216129634271</v>
+        <v>1.049607345241017</v>
       </c>
       <c r="L19">
-        <v>1.02011477047433</v>
+        <v>1.053946070865693</v>
       </c>
       <c r="M19">
-        <v>1.025995096703302</v>
+        <v>1.062826458754382</v>
       </c>
       <c r="N19">
-        <v>1.008976282482124</v>
+        <v>1.020244699269672</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9877189231353775</v>
+        <v>1.042999116887032</v>
       </c>
       <c r="D20">
-        <v>0.9982326796660266</v>
+        <v>1.045910778751127</v>
       </c>
       <c r="E20">
-        <v>1.004348839523882</v>
+        <v>1.050283373121297</v>
       </c>
       <c r="F20">
-        <v>1.010158585111864</v>
+        <v>1.059159245399496</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045487888332277</v>
+        <v>1.04052843601924</v>
       </c>
       <c r="J20">
-        <v>1.015731608464209</v>
+        <v>1.049148464299781</v>
       </c>
       <c r="K20">
-        <v>1.012306676620333</v>
+        <v>1.0492500569538</v>
       </c>
       <c r="L20">
-        <v>1.01831564844678</v>
+        <v>1.053607760940869</v>
       </c>
       <c r="M20">
-        <v>1.024025129420877</v>
+        <v>1.062453822534701</v>
       </c>
       <c r="N20">
-        <v>1.008358811751931</v>
+        <v>1.020132607669782</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9793566118734359</v>
+        <v>1.041528325460179</v>
       </c>
       <c r="D21">
-        <v>0.9907710390856581</v>
+        <v>1.044538222538433</v>
       </c>
       <c r="E21">
-        <v>0.9972751709437526</v>
+        <v>1.048973909444558</v>
       </c>
       <c r="F21">
-        <v>1.002515126753129</v>
+        <v>1.057739848809666</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042681636815297</v>
+        <v>1.040169472759381</v>
       </c>
       <c r="J21">
-        <v>1.00974351843287</v>
+        <v>1.048074565174823</v>
       </c>
       <c r="K21">
-        <v>1.005929392109739</v>
+        <v>1.048086871935212</v>
       </c>
       <c r="L21">
-        <v>1.01230835058565</v>
+        <v>1.052506423667441</v>
       </c>
       <c r="M21">
-        <v>1.017449005444773</v>
+        <v>1.061240915298601</v>
       </c>
       <c r="N21">
-        <v>1.006295028529976</v>
+        <v>1.019767326679304</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9739160525369799</v>
+        <v>1.040602584960827</v>
       </c>
       <c r="D22">
-        <v>0.9859251440965665</v>
+        <v>1.043674584462768</v>
       </c>
       <c r="E22">
-        <v>0.9926837615617574</v>
+        <v>1.04815007181034</v>
       </c>
       <c r="F22">
-        <v>0.9975534846966189</v>
+        <v>1.056846890518824</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040840196964685</v>
+        <v>1.039941406641278</v>
       </c>
       <c r="J22">
-        <v>1.005845375488463</v>
+        <v>1.047397902244048</v>
       </c>
       <c r="K22">
-        <v>1.00178067987363</v>
+        <v>1.04735428461768</v>
       </c>
       <c r="L22">
-        <v>1.008401561324049</v>
+        <v>1.051812836600212</v>
       </c>
       <c r="M22">
-        <v>1.013173563831006</v>
+        <v>1.060477200206394</v>
       </c>
       <c r="N22">
-        <v>1.004951360945939</v>
+        <v>1.019536995951866</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9768183969005132</v>
+        <v>1.041093433329058</v>
       </c>
       <c r="D23">
-        <v>0.9885094007415891</v>
+        <v>1.044132478788685</v>
       </c>
       <c r="E23">
-        <v>0.995132057367776</v>
+        <v>1.048586854576296</v>
       </c>
       <c r="F23">
-        <v>1.000199241944499</v>
+        <v>1.05732031570016</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041823976842527</v>
+        <v>1.040062533979075</v>
       </c>
       <c r="J23">
-        <v>1.007925074257659</v>
+        <v>1.047756753408106</v>
       </c>
       <c r="K23">
-        <v>1.003993798380066</v>
+        <v>1.04774276219879</v>
       </c>
       <c r="L23">
-        <v>1.010485506445535</v>
+        <v>1.052180628512682</v>
       </c>
       <c r="M23">
-        <v>1.015454032840485</v>
+        <v>1.060882166447926</v>
       </c>
       <c r="N23">
-        <v>1.005668231853392</v>
+        <v>1.019659161873004</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9878562037948722</v>
+        <v>1.043023758346367</v>
       </c>
       <c r="D24">
-        <v>0.9983553086678584</v>
+        <v>1.045933778941246</v>
       </c>
       <c r="E24">
-        <v>1.004465131764381</v>
+        <v>1.050305317763429</v>
       </c>
       <c r="F24">
-        <v>1.010284239205945</v>
+        <v>1.059183033080654</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045533692471848</v>
+        <v>1.040534413962879</v>
       </c>
       <c r="J24">
-        <v>1.015829868199986</v>
+        <v>1.049166443825753</v>
       </c>
       <c r="K24">
-        <v>1.0124113686216</v>
+        <v>1.049269536995006</v>
       </c>
       <c r="L24">
-        <v>1.018414285813123</v>
+        <v>1.053626206012944</v>
       </c>
       <c r="M24">
-        <v>1.024133127436118</v>
+        <v>1.062474138454879</v>
       </c>
       <c r="N24">
-        <v>1.008392672474624</v>
+        <v>1.02013872046324</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9999482603767613</v>
+        <v>1.045259602719513</v>
       </c>
       <c r="D25">
-        <v>1.009173750772889</v>
+        <v>1.048021336034137</v>
       </c>
       <c r="E25">
-        <v>1.014729589946243</v>
+        <v>1.052297309158129</v>
       </c>
       <c r="F25">
-        <v>1.021374410352255</v>
+        <v>1.061342427830212</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049530218156403</v>
+        <v>1.041071713814157</v>
       </c>
       <c r="J25">
-        <v>1.024477365891882</v>
+        <v>1.050796049613497</v>
       </c>
       <c r="K25">
-        <v>1.021631305905595</v>
+        <v>1.051035946048011</v>
       </c>
       <c r="L25">
-        <v>1.027103471539615</v>
+        <v>1.055298878955197</v>
       </c>
       <c r="M25">
-        <v>1.033649736009287</v>
+        <v>1.064316790391569</v>
       </c>
       <c r="N25">
-        <v>1.011371780108703</v>
+        <v>1.020692359694427</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_158/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_158/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047039682708714</v>
+        <v>1.009090359713216</v>
       </c>
       <c r="D2">
-        <v>1.049684267066092</v>
+        <v>1.01737516427756</v>
       </c>
       <c r="E2">
-        <v>1.053884458289688</v>
+        <v>1.022517772677719</v>
       </c>
       <c r="F2">
-        <v>1.063063112619902</v>
+        <v>1.029788467501404</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04149200229736</v>
+        <v>1.052494913855334</v>
       </c>
       <c r="J2">
-        <v>1.052090871787959</v>
+        <v>1.031002538005287</v>
       </c>
       <c r="K2">
-        <v>1.052440640327322</v>
+        <v>1.028597628392569</v>
       </c>
       <c r="L2">
-        <v>1.056629195115558</v>
+        <v>1.033672065502423</v>
       </c>
       <c r="M2">
-        <v>1.065782766879213</v>
+        <v>1.0408478329061</v>
       </c>
       <c r="N2">
-        <v>1.021131664836827</v>
+        <v>1.013618125276873</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048330387718712</v>
+        <v>1.015469093560682</v>
       </c>
       <c r="D3">
-        <v>1.050890545911572</v>
+        <v>1.023108925530671</v>
       </c>
       <c r="E3">
-        <v>1.055035962485241</v>
+        <v>1.027966172385958</v>
       </c>
       <c r="F3">
-        <v>1.064311590246407</v>
+        <v>1.03567450262742</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041792396837425</v>
+        <v>1.054529276640877</v>
       </c>
       <c r="J3">
-        <v>1.053028209899666</v>
+        <v>1.035546758039825</v>
       </c>
       <c r="K3">
-        <v>1.053458197933901</v>
+        <v>1.033454420916704</v>
       </c>
       <c r="L3">
-        <v>1.057592966904132</v>
+        <v>1.038253301156264</v>
       </c>
       <c r="M3">
-        <v>1.066845093708552</v>
+        <v>1.04587039609</v>
       </c>
       <c r="N3">
-        <v>1.021449335311988</v>
+        <v>1.015181324143575</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049164757177336</v>
+        <v>1.019485985547954</v>
       </c>
       <c r="D4">
-        <v>1.051670573656668</v>
+        <v>1.026724489877861</v>
       </c>
       <c r="E4">
-        <v>1.055780660943154</v>
+        <v>1.03140332588117</v>
       </c>
       <c r="F4">
-        <v>1.065119045730061</v>
+        <v>1.039387692102552</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041984569936853</v>
+        <v>1.055794134707373</v>
       </c>
       <c r="J4">
-        <v>1.053633443332907</v>
+        <v>1.038404039027979</v>
       </c>
       <c r="K4">
-        <v>1.054115544499963</v>
+        <v>1.036510728072981</v>
       </c>
       <c r="L4">
-        <v>1.05821561051617</v>
+        <v>1.041136956818763</v>
       </c>
       <c r="M4">
-        <v>1.067531535133883</v>
+        <v>1.049032893316683</v>
       </c>
       <c r="N4">
-        <v>1.02165429115508</v>
+        <v>1.016163592291313</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049515337253012</v>
+        <v>1.021149494006088</v>
       </c>
       <c r="D5">
-        <v>1.051998376500986</v>
+        <v>1.028222898017788</v>
       </c>
       <c r="E5">
-        <v>1.056093638270767</v>
+        <v>1.032828147830193</v>
       </c>
       <c r="F5">
-        <v>1.065458408457293</v>
+        <v>1.040926935776356</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042064833022041</v>
+        <v>1.056313987562001</v>
       </c>
       <c r="J5">
-        <v>1.053887577522354</v>
+        <v>1.039586219976528</v>
       </c>
       <c r="K5">
-        <v>1.054391636429154</v>
+        <v>1.03777585491094</v>
       </c>
       <c r="L5">
-        <v>1.058477137090774</v>
+        <v>1.042330790309631</v>
       </c>
       <c r="M5">
-        <v>1.067819888722743</v>
+        <v>1.050342417937427</v>
       </c>
       <c r="N5">
-        <v>1.02174031204181</v>
+        <v>1.016569836968566</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049574190214718</v>
+        <v>1.021427362557623</v>
       </c>
       <c r="D6">
-        <v>1.052053409029891</v>
+        <v>1.028473251693977</v>
       </c>
       <c r="E6">
-        <v>1.056146183100581</v>
+        <v>1.033066227110083</v>
       </c>
       <c r="F6">
-        <v>1.065515383656783</v>
+        <v>1.041184134143899</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042078278695095</v>
+        <v>1.056400587864473</v>
       </c>
       <c r="J6">
-        <v>1.053930229892851</v>
+        <v>1.039783622512703</v>
       </c>
       <c r="K6">
-        <v>1.05443797849986</v>
+        <v>1.037987143274474</v>
       </c>
       <c r="L6">
-        <v>1.058521034962615</v>
+        <v>1.042530182046475</v>
       </c>
       <c r="M6">
-        <v>1.067868291349106</v>
+        <v>1.050561146905747</v>
       </c>
       <c r="N6">
-        <v>1.021754746987111</v>
+        <v>1.016637662512645</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.049169442383289</v>
+        <v>1.019508310796299</v>
       </c>
       <c r="D7">
-        <v>1.0516749542459</v>
+        <v>1.026744595104593</v>
       </c>
       <c r="E7">
-        <v>1.055784843327686</v>
+        <v>1.03142244237043</v>
       </c>
       <c r="F7">
-        <v>1.065123580668059</v>
+        <v>1.039408343771248</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041985644483959</v>
+        <v>1.055801127182789</v>
       </c>
       <c r="J7">
-        <v>1.053636840285873</v>
+        <v>1.038419909001931</v>
       </c>
       <c r="K7">
-        <v>1.054119234659146</v>
+        <v>1.036527709160076</v>
       </c>
       <c r="L7">
-        <v>1.058219105959216</v>
+        <v>1.041152980295342</v>
       </c>
       <c r="M7">
-        <v>1.067535389015406</v>
+        <v>1.049050468593438</v>
       </c>
       <c r="N7">
-        <v>1.021655441129687</v>
+        <v>1.016169046506146</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04747605082097</v>
+        <v>1.011269778012279</v>
       </c>
       <c r="D8">
-        <v>1.050092042892357</v>
+        <v>1.019333160140966</v>
       </c>
       <c r="E8">
-        <v>1.054273699084897</v>
+        <v>1.024377990527649</v>
       </c>
       <c r="F8">
-        <v>1.063485124386476</v>
+        <v>1.031798119355517</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041593978477869</v>
+        <v>1.053193376032866</v>
       </c>
       <c r="J8">
-        <v>1.052407917381639</v>
+        <v>1.032556043294632</v>
       </c>
       <c r="K8">
-        <v>1.052784753944409</v>
+        <v>1.030257467811339</v>
       </c>
       <c r="L8">
-        <v>1.05695511073002</v>
+        <v>1.035237568891239</v>
       </c>
       <c r="M8">
-        <v>1.066141984322726</v>
+        <v>1.042563925653075</v>
       </c>
       <c r="N8">
-        <v>1.021239147320228</v>
+        <v>1.0141526520779</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044485775918684</v>
+        <v>0.9958428336303041</v>
       </c>
       <c r="D9">
-        <v>1.047298688905325</v>
+        <v>1.00549698142928</v>
       </c>
       <c r="E9">
-        <v>1.051607690071559</v>
+        <v>1.011239973385557</v>
       </c>
       <c r="F9">
-        <v>1.060594830664033</v>
+        <v>1.017604199860883</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040886912487681</v>
+        <v>1.048182189940284</v>
       </c>
       <c r="J9">
-        <v>1.05023244348836</v>
+        <v>1.021543251086429</v>
       </c>
       <c r="K9">
-        <v>1.050424844137705</v>
+        <v>1.018501499096536</v>
       </c>
       <c r="L9">
-        <v>1.054720180268962</v>
+        <v>1.02415328457322</v>
       </c>
       <c r="M9">
-        <v>1.063679210472267</v>
+        <v>1.030417975057342</v>
       </c>
       <c r="N9">
-        <v>1.0205009731277</v>
+        <v>1.010361181813159</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042487805689019</v>
+        <v>0.9848497112521072</v>
       </c>
       <c r="D10">
-        <v>1.045433557923191</v>
+        <v>0.9956706835245628</v>
       </c>
       <c r="E10">
-        <v>1.049828066141052</v>
+        <v>1.001919524358181</v>
       </c>
       <c r="F10">
-        <v>1.058665704560969</v>
+        <v>1.007533663507054</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040404122951353</v>
+        <v>1.044528542804197</v>
       </c>
       <c r="J10">
-        <v>1.048775295073274</v>
+        <v>1.013677591881784</v>
       </c>
       <c r="K10">
-        <v>1.048845786670775</v>
+        <v>1.010118547565018</v>
       </c>
       <c r="L10">
-        <v>1.053224975442699</v>
+        <v>1.01625420747373</v>
       </c>
       <c r="M10">
-        <v>1.062032228980429</v>
+        <v>1.021768214665552</v>
       </c>
       <c r="N10">
-        <v>1.020005713861591</v>
+        <v>1.007650952565329</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041621557283808</v>
+        <v>0.9798967596219788</v>
       </c>
       <c r="D11">
-        <v>1.044625211562318</v>
+        <v>0.9912525222339643</v>
       </c>
       <c r="E11">
-        <v>1.049056893926014</v>
+        <v>0.9977314769781401</v>
       </c>
       <c r="F11">
-        <v>1.057829797556887</v>
+        <v>1.003008209860967</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04019235131929</v>
+        <v>1.042863815600917</v>
       </c>
       <c r="J11">
-        <v>1.048142681269283</v>
+        <v>1.010130448984789</v>
       </c>
       <c r="K11">
-        <v>1.048160631798496</v>
+        <v>1.006341310340246</v>
       </c>
       <c r="L11">
-        <v>1.052576258859208</v>
+        <v>1.012696301498973</v>
       </c>
       <c r="M11">
-        <v>1.061317817194657</v>
+        <v>1.017873617855483</v>
       </c>
       <c r="N11">
-        <v>1.019790505788593</v>
+        <v>1.006428395769085</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041299622357306</v>
+        <v>0.9780256498606397</v>
       </c>
       <c r="D12">
-        <v>1.044324842376392</v>
+        <v>0.9895849191005962</v>
       </c>
       <c r="E12">
-        <v>1.048770355600059</v>
+        <v>0.9961511576013834</v>
       </c>
       <c r="F12">
-        <v>1.05751921362156</v>
+        <v>1.001300507611611</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040113280081017</v>
+        <v>1.042232227743065</v>
       </c>
       <c r="J12">
-        <v>1.047907448247897</v>
+        <v>1.008790024536991</v>
       </c>
       <c r="K12">
-        <v>1.047905919547128</v>
+        <v>1.004914413324378</v>
       </c>
       <c r="L12">
-        <v>1.052335101114047</v>
+        <v>1.01135246871412</v>
       </c>
       <c r="M12">
-        <v>1.061052260877911</v>
+        <v>1.016402834289979</v>
       </c>
       <c r="N12">
-        <v>1.019710453226932</v>
+        <v>1.005966373089148</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041368686331201</v>
+        <v>0.9784284697726419</v>
       </c>
       <c r="D13">
-        <v>1.044389277769718</v>
+        <v>0.9899438587976497</v>
       </c>
       <c r="E13">
-        <v>1.048831823193091</v>
+        <v>0.9964912902534218</v>
       </c>
       <c r="F13">
-        <v>1.057585839094869</v>
+        <v>1.001668060086948</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040130259693105</v>
+        <v>1.042368318380494</v>
       </c>
       <c r="J13">
-        <v>1.047957917983019</v>
+        <v>1.009078612703012</v>
       </c>
       <c r="K13">
-        <v>1.04796056597753</v>
+        <v>1.005221597163988</v>
       </c>
       <c r="L13">
-        <v>1.052386839161348</v>
+        <v>1.011641760730693</v>
       </c>
       <c r="M13">
-        <v>1.061109232344455</v>
+        <v>1.016719445565257</v>
       </c>
       <c r="N13">
-        <v>1.019727629977969</v>
+        <v>1.006065845942829</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041594949570021</v>
+        <v>0.9797427476608828</v>
       </c>
       <c r="D14">
-        <v>1.044600385283479</v>
+        <v>0.991115230389961</v>
       </c>
       <c r="E14">
-        <v>1.049033210444794</v>
+        <v>0.9976013622311997</v>
       </c>
       <c r="F14">
-        <v>1.057804126464585</v>
+        <v>1.00286760851932</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040185823632717</v>
+        <v>1.042811883339668</v>
       </c>
       <c r="J14">
-        <v>1.048123241993436</v>
+        <v>1.010020125461483</v>
       </c>
       <c r="K14">
-        <v>1.048139581612315</v>
+        <v>1.006223860019721</v>
       </c>
       <c r="L14">
-        <v>1.052556328689395</v>
+        <v>1.012585684010862</v>
       </c>
       <c r="M14">
-        <v>1.061295870160126</v>
+        <v>1.017752545970379</v>
       </c>
       <c r="N14">
-        <v>1.019783890963908</v>
+        <v>1.006390369583679</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041734334937733</v>
+        <v>0.9805482857809995</v>
       </c>
       <c r="D15">
-        <v>1.044730440469355</v>
+        <v>0.99183337695999</v>
       </c>
       <c r="E15">
-        <v>1.04915727967808</v>
+        <v>0.9982819844444023</v>
       </c>
       <c r="F15">
-        <v>1.057938608378677</v>
+        <v>1.003603082712117</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04022000407117</v>
+        <v>1.04308339888403</v>
       </c>
       <c r="J15">
-        <v>1.048225070082905</v>
+        <v>1.010597141749031</v>
       </c>
       <c r="K15">
-        <v>1.048249850443532</v>
+        <v>1.006838170433105</v>
       </c>
       <c r="L15">
-        <v>1.05266073078998</v>
+        <v>1.013164264670127</v>
       </c>
       <c r="M15">
-        <v>1.061410838350726</v>
+        <v>1.018385816871385</v>
       </c>
       <c r="N15">
-        <v>1.019818539988464</v>
+        <v>1.006589253681409</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042545271901857</v>
+        <v>0.9851741611411711</v>
       </c>
       <c r="D16">
-        <v>1.045487189495692</v>
+        <v>0.9959602985849773</v>
       </c>
       <c r="E16">
-        <v>1.049879233756517</v>
+        <v>1.002194112902534</v>
       </c>
       <c r="F16">
-        <v>1.058721168397167</v>
+        <v>1.007830365566936</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040418120125023</v>
+        <v>1.04463721598225</v>
       </c>
       <c r="J16">
-        <v>1.048817244373326</v>
+        <v>1.013909892326757</v>
       </c>
       <c r="K16">
-        <v>1.048891228126136</v>
+        <v>1.010365982694814</v>
       </c>
       <c r="L16">
-        <v>1.053268001358678</v>
+        <v>1.016487303019014</v>
       </c>
       <c r="M16">
-        <v>1.062079615380737</v>
+        <v>1.022023398411839</v>
       </c>
       <c r="N16">
-        <v>1.020019980476343</v>
+        <v>1.007731011656094</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043053649915662</v>
+        <v>0.988022611881292</v>
       </c>
       <c r="D17">
-        <v>1.045961679754886</v>
+        <v>0.9985039621936947</v>
       </c>
       <c r="E17">
-        <v>1.050331938200728</v>
+        <v>1.004606105443476</v>
       </c>
       <c r="F17">
-        <v>1.059211889290323</v>
+        <v>1.010436561436643</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040541663950662</v>
+        <v>1.045589202989595</v>
       </c>
       <c r="J17">
-        <v>1.049188253511575</v>
+        <v>1.015948973949179</v>
       </c>
       <c r="K17">
-        <v>1.049293167103103</v>
+        <v>1.012538273317196</v>
       </c>
       <c r="L17">
-        <v>1.053648580695911</v>
+        <v>1.018533852086291</v>
       </c>
       <c r="M17">
-        <v>1.062498782661184</v>
+        <v>1.024264041428344</v>
       </c>
       <c r="N17">
-        <v>1.020146135331019</v>
+        <v>1.008433716593327</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04335007100842</v>
+        <v>0.9896656317463152</v>
       </c>
       <c r="D18">
-        <v>1.046238371462692</v>
+        <v>0.9999720246877623</v>
       </c>
       <c r="E18">
-        <v>1.050595936967401</v>
+        <v>1.005998424664332</v>
       </c>
       <c r="F18">
-        <v>1.059498062492004</v>
+        <v>1.011940950850255</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040613462552569</v>
+        <v>1.046136563444106</v>
       </c>
       <c r="J18">
-        <v>1.049404496997547</v>
+        <v>1.017124825557205</v>
       </c>
       <c r="K18">
-        <v>1.049527475220676</v>
+        <v>1.013791241039492</v>
       </c>
       <c r="L18">
-        <v>1.053870442579499</v>
+        <v>1.019714414590298</v>
       </c>
       <c r="M18">
-        <v>1.062743154675526</v>
+        <v>1.025556702763958</v>
       </c>
       <c r="N18">
-        <v>1.020219646292273</v>
+        <v>1.008838903747408</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04345112488735</v>
+        <v>0.9902228007665571</v>
       </c>
       <c r="D19">
-        <v>1.046332704338047</v>
+        <v>1.000470004041179</v>
       </c>
       <c r="E19">
-        <v>1.050685944302737</v>
+        <v>1.006470752883866</v>
       </c>
       <c r="F19">
-        <v>1.059595630760496</v>
+        <v>1.012451292249187</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040637899541682</v>
+        <v>1.046321879566945</v>
       </c>
       <c r="J19">
-        <v>1.049478203407343</v>
+        <v>1.01752351581041</v>
       </c>
       <c r="K19">
-        <v>1.049607345241017</v>
+        <v>1.014216129634272</v>
       </c>
       <c r="L19">
-        <v>1.053946070865693</v>
+        <v>1.02011477047433</v>
       </c>
       <c r="M19">
-        <v>1.062826458754382</v>
+        <v>1.025995096703303</v>
       </c>
       <c r="N19">
-        <v>1.020244699269672</v>
+        <v>1.008976282482125</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042999116887032</v>
+        <v>0.9877189231353762</v>
       </c>
       <c r="D20">
-        <v>1.045910778751127</v>
+        <v>0.9982326796660254</v>
       </c>
       <c r="E20">
-        <v>1.050283373121297</v>
+        <v>1.004348839523881</v>
       </c>
       <c r="F20">
-        <v>1.059159245399496</v>
+        <v>1.010158585111863</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04052843601924</v>
+        <v>1.045487888332276</v>
       </c>
       <c r="J20">
-        <v>1.049148464299781</v>
+        <v>1.015731608464208</v>
       </c>
       <c r="K20">
-        <v>1.0492500569538</v>
+        <v>1.012306676620332</v>
       </c>
       <c r="L20">
-        <v>1.053607760940869</v>
+        <v>1.018315648446779</v>
       </c>
       <c r="M20">
-        <v>1.062453822534701</v>
+        <v>1.024025129420876</v>
       </c>
       <c r="N20">
-        <v>1.020132607669782</v>
+        <v>1.008358811751931</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041528325460179</v>
+        <v>0.9793566118734375</v>
       </c>
       <c r="D21">
-        <v>1.044538222538433</v>
+        <v>0.9907710390856594</v>
       </c>
       <c r="E21">
-        <v>1.048973909444558</v>
+        <v>0.9972751709437533</v>
       </c>
       <c r="F21">
-        <v>1.057739848809666</v>
+        <v>1.00251512675313</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040169472759381</v>
+        <v>1.042681636815298</v>
       </c>
       <c r="J21">
-        <v>1.048074565174823</v>
+        <v>1.009743518432871</v>
       </c>
       <c r="K21">
-        <v>1.048086871935212</v>
+        <v>1.005929392109741</v>
       </c>
       <c r="L21">
-        <v>1.052506423667441</v>
+        <v>1.012308350585651</v>
       </c>
       <c r="M21">
-        <v>1.061240915298601</v>
+        <v>1.017449005444775</v>
       </c>
       <c r="N21">
-        <v>1.019767326679304</v>
+        <v>1.006295028529976</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040602584960827</v>
+        <v>0.9739160525369809</v>
       </c>
       <c r="D22">
-        <v>1.043674584462768</v>
+        <v>0.9859251440965676</v>
       </c>
       <c r="E22">
-        <v>1.04815007181034</v>
+        <v>0.9926837615617579</v>
       </c>
       <c r="F22">
-        <v>1.056846890518824</v>
+        <v>0.9975534846966195</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039941406641278</v>
+        <v>1.040840196964685</v>
       </c>
       <c r="J22">
-        <v>1.047397902244048</v>
+        <v>1.005845375488464</v>
       </c>
       <c r="K22">
-        <v>1.04735428461768</v>
+        <v>1.001780679873631</v>
       </c>
       <c r="L22">
-        <v>1.051812836600212</v>
+        <v>1.00840156132405</v>
       </c>
       <c r="M22">
-        <v>1.060477200206394</v>
+        <v>1.013173563831007</v>
       </c>
       <c r="N22">
-        <v>1.019536995951866</v>
+        <v>1.004951360945939</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041093433329058</v>
+        <v>0.9768183969005134</v>
       </c>
       <c r="D23">
-        <v>1.044132478788685</v>
+        <v>0.9885094007415896</v>
       </c>
       <c r="E23">
-        <v>1.048586854576296</v>
+        <v>0.9951320573677762</v>
       </c>
       <c r="F23">
-        <v>1.05732031570016</v>
+        <v>1.000199241944499</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040062533979075</v>
+        <v>1.041823976842527</v>
       </c>
       <c r="J23">
-        <v>1.047756753408106</v>
+        <v>1.00792507425766</v>
       </c>
       <c r="K23">
-        <v>1.04774276219879</v>
+        <v>1.003993798380067</v>
       </c>
       <c r="L23">
-        <v>1.052180628512682</v>
+        <v>1.010485506445536</v>
       </c>
       <c r="M23">
-        <v>1.060882166447926</v>
+        <v>1.015454032840485</v>
       </c>
       <c r="N23">
-        <v>1.019659161873004</v>
+        <v>1.005668231853392</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043023758346367</v>
+        <v>0.9878562037948725</v>
       </c>
       <c r="D24">
-        <v>1.045933778941246</v>
+        <v>0.9983553086678589</v>
       </c>
       <c r="E24">
-        <v>1.050305317763429</v>
+        <v>1.004465131764381</v>
       </c>
       <c r="F24">
-        <v>1.059183033080654</v>
+        <v>1.010284239205945</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040534413962879</v>
+        <v>1.045533692471849</v>
       </c>
       <c r="J24">
-        <v>1.049166443825753</v>
+        <v>1.015829868199986</v>
       </c>
       <c r="K24">
-        <v>1.049269536995006</v>
+        <v>1.012411368621601</v>
       </c>
       <c r="L24">
-        <v>1.053626206012944</v>
+        <v>1.018414285813123</v>
       </c>
       <c r="M24">
-        <v>1.062474138454879</v>
+        <v>1.024133127436118</v>
       </c>
       <c r="N24">
-        <v>1.02013872046324</v>
+        <v>1.008392672474624</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045259602719513</v>
+        <v>0.9999482603767613</v>
       </c>
       <c r="D25">
-        <v>1.048021336034137</v>
+        <v>1.009173750772889</v>
       </c>
       <c r="E25">
-        <v>1.052297309158129</v>
+        <v>1.014729589946243</v>
       </c>
       <c r="F25">
-        <v>1.061342427830212</v>
+        <v>1.021374410352255</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041071713814157</v>
+        <v>1.049530218156403</v>
       </c>
       <c r="J25">
-        <v>1.050796049613497</v>
+        <v>1.024477365891882</v>
       </c>
       <c r="K25">
-        <v>1.051035946048011</v>
+        <v>1.021631305905595</v>
       </c>
       <c r="L25">
-        <v>1.055298878955197</v>
+        <v>1.027103471539615</v>
       </c>
       <c r="M25">
-        <v>1.064316790391569</v>
+        <v>1.033649736009287</v>
       </c>
       <c r="N25">
-        <v>1.020692359694427</v>
+        <v>1.011371780108703</v>
       </c>
     </row>
   </sheetData>
